--- a/Project3/improved_data_4.xlsx
+++ b/Project3/improved_data_4.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Documents\ComputationalPhysics\Projects\Gruppe\Project3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tore/Documents/2019 høst/Computational-Physics-group/Project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{849E4705-8BE8-4653-A9BF-33AE70CCE2F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BC10CDB-E1C1-F14A-8C53-92908F746438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276"/>
+    <workbookView xWindow="1580" yWindow="1560" windowWidth="26840" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="improved_data_4" sheetId="1" r:id="rId1"/>
-    <sheet name="Ark1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -26,13 +35,13 @@
     <t>STD</t>
   </si>
   <si>
-    <t>INT</t>
+    <t>Integral</t>
   </si>
   <si>
-    <t>TIME</t>
+    <t>Time</t>
   </si>
   <si>
-    <t>AVG</t>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
@@ -41,14 +50,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -86,28 +95,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -115,7 +124,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -123,14 +132,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -138,14 +147,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -153,7 +162,7 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -161,14 +170,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -876,17 +885,12 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="21.19921875" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" customWidth="1"/>
-    <col min="3" max="3" width="16.73046875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -897,163 +901,151 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2">
-        <v>9.9938532849999998E-3</v>
+        <v>9.2880822179999996E-3</v>
       </c>
       <c r="C2">
-        <v>0.1980453727649</v>
+        <v>0.18886116586583801</v>
       </c>
       <c r="D2">
-        <v>2.1870000000000001E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>3.1161439999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3">
-        <v>7.5219247090000003E-3</v>
+        <v>9.0251692949999997E-3</v>
       </c>
       <c r="C3">
-        <v>0.18367428521789</v>
+        <v>0.200714787035528</v>
       </c>
       <c r="D3">
-        <v>2.0841000000000002E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>2.2476060000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4">
-        <v>9.2484285060000001E-3</v>
+        <v>8.1814114300000004E-3</v>
       </c>
       <c r="C4">
-        <v>0.18886682788638301</v>
+        <v>0.19145340837553401</v>
       </c>
       <c r="D4">
-        <v>2.2926000000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1.7382330000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5">
-        <v>6.9212471319999996E-3</v>
+        <v>8.8677669000000008E-3</v>
       </c>
       <c r="C5">
-        <v>0.17460968326330301</v>
+        <v>0.189237485091271</v>
       </c>
       <c r="D5">
-        <v>2.0213000000000002E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1.496893E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6">
-        <v>8.6511722940000001E-3</v>
+        <v>9.0424648210000007E-3</v>
       </c>
       <c r="C6">
-        <v>0.19345482401509301</v>
+        <v>0.19591505849492599</v>
       </c>
       <c r="D6">
-        <v>2.1235999999999998E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1.489197E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7">
-        <v>9.3700434239999998E-3</v>
+        <v>7.4394588769999999E-3</v>
       </c>
       <c r="C7">
-        <v>0.18837643652871899</v>
+        <v>0.188981557035694</v>
       </c>
       <c r="D7">
-        <v>2.4816999999999999E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1.500384E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8">
-        <v>8.4132452859999995E-3</v>
+        <v>8.7100503550000003E-3</v>
       </c>
       <c r="C8">
-        <v>0.18799026220498599</v>
+        <v>0.185580337153779</v>
       </c>
       <c r="D8">
-        <v>2.8316000000000001E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1.486881E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>9.5300994949999995E-3</v>
+        <v>8.3982764590000009E-3</v>
       </c>
       <c r="C9">
-        <v>0.20244435245520301</v>
+        <v>0.178167083645935</v>
       </c>
       <c r="D9">
-        <v>2.0246000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1.6121460000000001E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>1.164628945E-2</v>
+        <v>1.083360915E-2</v>
       </c>
       <c r="C10">
-        <v>0.202721595292887</v>
+        <v>0.20395114276113999</v>
       </c>
       <c r="D10">
-        <v>1.9848999999999999E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1.4328780000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11">
-        <v>8.3800281510000001E-3</v>
+        <v>1.3236499420000001E-2</v>
       </c>
       <c r="C11">
-        <v>0.18879868539097899</v>
+        <v>0.184220097511442</v>
       </c>
       <c r="D11">
-        <v>2.6679E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1.8493579999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
       <c r="B13">
         <f>AVERAGE(B2:B11)</f>
-        <v>8.9676331732000004E-3</v>
+        <v>9.3022788924999999E-3</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:D13" si="0">AVERAGE(C2:C11)</f>
-        <v>0.1908982325020343</v>
+        <f>AVERAGE(C2:C11)</f>
+        <v>0.19070821229710871</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>2.2699300000000003E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <f>AVERAGE(D2:D11)</f>
+        <v>1.7969720000000002E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14">
-        <f>_xlfn.STDEV.P(B2:B11)</f>
-        <v>1.257617486832294E-3</v>
+        <f>_xlfn.STDEV.S(B2:B11)</f>
+        <v>1.6347190085947328E-3</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:D14" si="1">_xlfn.STDEV.P(C2:C11)</f>
-        <v>8.1949695996327201E-3</v>
+        <f>_xlfn.STDEV.S(C2:C11)</f>
+        <v>7.727295861796611E-3</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
-        <v>2.8022887092517788E-4</v>
+        <f>_xlfn.STDEV.S(D2:D11)</f>
+        <v>5.2547324159169981E-4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Project3/improved_data_4.xlsx
+++ b/Project3/improved_data_4.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tore/Documents/2019 høst/Computational-Physics-group/Project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BC10CDB-E1C1-F14A-8C53-92908F746438}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34150A4-2FD2-4540-8732-6975E324C663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1560" windowWidth="26840" windowHeight="15940"/>
+    <workbookView xWindow="1580" yWindow="1560" windowWidth="26840" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="improved_data_4" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>STD</t>
   </si>
@@ -43,11 +43,17 @@
   <si>
     <t>Avg</t>
   </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>RMS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -881,137 +887,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>9.2880822179999996E-3</v>
       </c>
       <c r="C2">
+        <f>B2^2</f>
+        <v>8.6268471288327789E-5</v>
+      </c>
+      <c r="D2">
         <v>0.18886116586583801</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3.1161439999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>9.0251692949999997E-3</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C11" si="0">B3^2</f>
+        <v>8.1453680803410792E-5</v>
+      </c>
+      <c r="D3">
         <v>0.200714787035528</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>2.2476060000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>8.1814114300000004E-3</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>6.693549298693465E-5</v>
+      </c>
+      <c r="D4">
         <v>0.19145340837553401</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1.7382330000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>8.8677669000000008E-3</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>7.8637289792735625E-5</v>
+      </c>
+      <c r="D5">
         <v>0.189237485091271</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1.496893E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>9.0424648210000007E-3</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>8.1766170039022579E-5</v>
+      </c>
+      <c r="D6">
         <v>0.19591505849492599</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1.489197E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>7.4394588769999999E-3</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>5.5345548382574098E-5</v>
+      </c>
+      <c r="D7">
         <v>0.188981557035694</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1.500384E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>8.7100503550000003E-3</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>7.5864977186635636E-5</v>
+      </c>
+      <c r="D8">
         <v>0.185580337153779</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1.486881E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>8.3982764590000009E-3</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>7.0531047481793595E-5</v>
+      </c>
+      <c r="D9">
         <v>0.178167083645935</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.6121460000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1.083360915E-2</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>1.1736708721496372E-4</v>
+      </c>
+      <c r="D10">
         <v>0.20395114276113999</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1.4328780000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>1.3236499420000001E-2</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.7520491689566035E-4</v>
+      </c>
+      <c r="D11">
         <v>0.184220097511442</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1.8493579999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1021,28 +1073,37 @@
       </c>
       <c r="C13">
         <f>AVERAGE(C2:C11)</f>
-        <v>0.19070821229710871</v>
+        <v>8.8937468207205881E-5</v>
       </c>
       <c r="D13">
         <f>AVERAGE(D2:D11)</f>
+        <v>0.19070821229710871</v>
+      </c>
+      <c r="E13">
+        <f>AVERAGE(E2:E11)</f>
         <v>1.7969720000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14">
-        <f>_xlfn.STDEV.S(B2:B11)</f>
-        <v>1.6347190085947328E-3</v>
-      </c>
-      <c r="C14">
-        <f>_xlfn.STDEV.S(C2:C11)</f>
-        <v>7.727295861796611E-3</v>
-      </c>
       <c r="D14">
         <f>_xlfn.STDEV.S(D2:D11)</f>
+        <v>7.727295861796611E-3</v>
+      </c>
+      <c r="E14">
+        <f>_xlfn.STDEV.S(E2:E11)</f>
         <v>5.2547324159169981E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <f>SQRT(C13)</f>
+        <v>9.4306663713231778E-3</v>
       </c>
     </row>
   </sheetData>
